--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1759.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1759.xlsx
@@ -351,10 +351,10 @@
         <v>1.118567977920422</v>
       </c>
       <c r="B1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.677509416704936</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1759.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1759.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.118567977920422</v>
+        <v>0.3052415251731873</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>0.820675790309906</v>
       </c>
       <c r="C1">
         <v>15</v>
       </c>
       <c r="D1">
-        <v>1.677509416704936</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>1.196720911328815</v>
+        <v>1.087025165557861</v>
       </c>
     </row>
   </sheetData>
